--- a/data/pca/factorExposure/factorExposure_2012-02-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01358508959623491</v>
+        <v>0.01465590096285874</v>
       </c>
       <c r="C2">
-        <v>-0.03133306987868511</v>
+        <v>0.02670746558126707</v>
       </c>
       <c r="D2">
-        <v>0.003317426828784443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.005947773787244565</v>
+      </c>
+      <c r="E2">
+        <v>-0.01137406352034601</v>
+      </c>
+      <c r="F2">
+        <v>0.01243921367010781</v>
+      </c>
+      <c r="G2">
+        <v>0.01568844181615403</v>
+      </c>
+      <c r="H2">
+        <v>0.05141811825584731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07201185328599177</v>
+        <v>0.08703259769872543</v>
       </c>
       <c r="C4">
-        <v>-0.04997601611242457</v>
+        <v>0.03701583544329622</v>
       </c>
       <c r="D4">
-        <v>0.08293440058369002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06504308921608719</v>
+      </c>
+      <c r="E4">
+        <v>-0.01465145276016747</v>
+      </c>
+      <c r="F4">
+        <v>0.03098582329377654</v>
+      </c>
+      <c r="G4">
+        <v>0.005455290409236039</v>
+      </c>
+      <c r="H4">
+        <v>-0.0386836035177309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1071336235702304</v>
+        <v>0.1189515460520284</v>
       </c>
       <c r="C6">
-        <v>-0.05604920143209677</v>
+        <v>0.03499480715877901</v>
       </c>
       <c r="D6">
-        <v>-0.003451685221825773</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0116700433459318</v>
+      </c>
+      <c r="E6">
+        <v>0.002993759559253584</v>
+      </c>
+      <c r="F6">
+        <v>0.05119809099006092</v>
+      </c>
+      <c r="G6">
+        <v>0.03323008304786526</v>
+      </c>
+      <c r="H6">
+        <v>0.1087116711711469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04884379127997825</v>
+        <v>0.06365505774193511</v>
       </c>
       <c r="C7">
-        <v>-0.02848636508970709</v>
+        <v>0.0204799381856279</v>
       </c>
       <c r="D7">
-        <v>0.04565689393487182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04531739944138584</v>
+      </c>
+      <c r="E7">
+        <v>-0.03672370040916866</v>
+      </c>
+      <c r="F7">
+        <v>0.03384466474921208</v>
+      </c>
+      <c r="G7">
+        <v>-0.03584231779708659</v>
+      </c>
+      <c r="H7">
+        <v>-0.005385827824283054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03988818422531066</v>
+        <v>0.04224798310391398</v>
       </c>
       <c r="C8">
-        <v>-0.0136338474601728</v>
+        <v>0.008347354524431295</v>
       </c>
       <c r="D8">
-        <v>0.0534865558054818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02139045531954794</v>
+      </c>
+      <c r="E8">
+        <v>-0.03638960892992712</v>
+      </c>
+      <c r="F8">
+        <v>0.0508615173928927</v>
+      </c>
+      <c r="G8">
+        <v>0.05942978881016476</v>
+      </c>
+      <c r="H8">
+        <v>0.01017865272044094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06647241934636869</v>
+        <v>0.07837301451966187</v>
       </c>
       <c r="C9">
-        <v>-0.04174762477208442</v>
+        <v>0.02785615568637085</v>
       </c>
       <c r="D9">
-        <v>0.07236196454590052</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06407917438094132</v>
+      </c>
+      <c r="E9">
+        <v>-0.03986269889086691</v>
+      </c>
+      <c r="F9">
+        <v>0.02923175958463254</v>
+      </c>
+      <c r="G9">
+        <v>0.007285455837107844</v>
+      </c>
+      <c r="H9">
+        <v>-0.04347933727418325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02853231264953381</v>
+        <v>0.0337941787777142</v>
       </c>
       <c r="C10">
-        <v>-0.03373130982798452</v>
+        <v>0.04382592999222113</v>
       </c>
       <c r="D10">
-        <v>-0.1800609768513046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1745385371627882</v>
+      </c>
+      <c r="E10">
+        <v>-0.04909978958457106</v>
+      </c>
+      <c r="F10">
+        <v>0.04439620202331158</v>
+      </c>
+      <c r="G10">
+        <v>-0.02863781881467116</v>
+      </c>
+      <c r="H10">
+        <v>0.04597934834559084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06996910239812948</v>
+        <v>0.07637042095223751</v>
       </c>
       <c r="C11">
-        <v>-0.04738696019392866</v>
+        <v>0.02757176341137263</v>
       </c>
       <c r="D11">
-        <v>0.05663775781957704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06261133807537614</v>
+      </c>
+      <c r="E11">
+        <v>0.0009780072136613225</v>
+      </c>
+      <c r="F11">
+        <v>0.02882037892184324</v>
+      </c>
+      <c r="G11">
+        <v>-0.004339744521558306</v>
+      </c>
+      <c r="H11">
+        <v>-0.08045497634669996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0581278372369187</v>
+        <v>0.06765678444875471</v>
       </c>
       <c r="C12">
-        <v>-0.05248500226499984</v>
+        <v>0.03743052352310947</v>
       </c>
       <c r="D12">
-        <v>0.04293922329531639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04775440801637051</v>
+      </c>
+      <c r="E12">
+        <v>-0.01346540593410489</v>
+      </c>
+      <c r="F12">
+        <v>0.02094679421214385</v>
+      </c>
+      <c r="G12">
+        <v>0.001463501533232676</v>
+      </c>
+      <c r="H12">
+        <v>-0.03855924269771243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05983666835453037</v>
+        <v>0.06497767726942588</v>
       </c>
       <c r="C13">
-        <v>-0.04001303776749685</v>
+        <v>0.02535183407742364</v>
       </c>
       <c r="D13">
-        <v>0.06118249712504531</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04355040157869066</v>
+      </c>
+      <c r="E13">
+        <v>-0.01735317861755011</v>
+      </c>
+      <c r="F13">
+        <v>0.006575969065699647</v>
+      </c>
+      <c r="G13">
+        <v>-0.009701012794095845</v>
+      </c>
+      <c r="H13">
+        <v>-0.03729200621582164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03285244281438068</v>
+        <v>0.04087558281013602</v>
       </c>
       <c r="C14">
-        <v>-0.03136505644033134</v>
+        <v>0.02724136091270011</v>
       </c>
       <c r="D14">
-        <v>0.0009692180198977066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.00756641126686754</v>
+      </c>
+      <c r="E14">
+        <v>-0.03334131681378481</v>
+      </c>
+      <c r="F14">
+        <v>0.0105604179891368</v>
+      </c>
+      <c r="G14">
+        <v>0.003897190995243927</v>
+      </c>
+      <c r="H14">
+        <v>-0.05925211631522688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04009828165512025</v>
+        <v>0.04002362458034734</v>
       </c>
       <c r="C15">
-        <v>-0.01127357783833246</v>
+        <v>0.003846632997630499</v>
       </c>
       <c r="D15">
-        <v>0.01862791045113653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004526706129570846</v>
+      </c>
+      <c r="E15">
+        <v>-0.04099960267298216</v>
+      </c>
+      <c r="F15">
+        <v>-0.008523617941007724</v>
+      </c>
+      <c r="G15">
+        <v>0.02358299577021613</v>
+      </c>
+      <c r="H15">
+        <v>-0.03883179386427437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06035319857960236</v>
+        <v>0.07052470594465106</v>
       </c>
       <c r="C16">
-        <v>-0.04279703436403725</v>
+        <v>0.02833976656511086</v>
       </c>
       <c r="D16">
-        <v>0.04598208831562373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06147918977322278</v>
+      </c>
+      <c r="E16">
+        <v>-0.007102695417070748</v>
+      </c>
+      <c r="F16">
+        <v>0.02540921362678141</v>
+      </c>
+      <c r="G16">
+        <v>-0.004947225275918129</v>
+      </c>
+      <c r="H16">
+        <v>-0.04962961316023488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06275531477656152</v>
+        <v>0.06391114418504709</v>
       </c>
       <c r="C20">
-        <v>-0.02997711634778094</v>
+        <v>0.01319023172208154</v>
       </c>
       <c r="D20">
-        <v>0.05014762052897674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03809442761978405</v>
+      </c>
+      <c r="E20">
+        <v>-0.03158270925886887</v>
+      </c>
+      <c r="F20">
+        <v>0.01945594185992302</v>
+      </c>
+      <c r="G20">
+        <v>0.01096711427877843</v>
+      </c>
+      <c r="H20">
+        <v>-0.04031712394868519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02426506960757707</v>
+        <v>0.02572095360287265</v>
       </c>
       <c r="C21">
-        <v>0.001970567183738085</v>
+        <v>-0.009286884592231625</v>
       </c>
       <c r="D21">
-        <v>0.0245858008108241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02772890813671466</v>
+      </c>
+      <c r="E21">
+        <v>-0.03911666718464802</v>
+      </c>
+      <c r="F21">
+        <v>-0.01516904020344815</v>
+      </c>
+      <c r="G21">
+        <v>0.005441651901079998</v>
+      </c>
+      <c r="H21">
+        <v>0.04401139401378609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07687760512595557</v>
+        <v>0.07279086177693599</v>
       </c>
       <c r="C22">
-        <v>-0.06012121373328475</v>
+        <v>0.03923584540469599</v>
       </c>
       <c r="D22">
-        <v>0.1031157722924043</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07076906162175702</v>
+      </c>
+      <c r="E22">
+        <v>-0.5618230857581225</v>
+      </c>
+      <c r="F22">
+        <v>-0.2496562767337267</v>
+      </c>
+      <c r="G22">
+        <v>-0.07357771899839741</v>
+      </c>
+      <c r="H22">
+        <v>0.1462083482255877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07785953985584643</v>
+        <v>0.07344168240811204</v>
       </c>
       <c r="C23">
-        <v>-0.05903140506200243</v>
+        <v>0.03791800473575295</v>
       </c>
       <c r="D23">
-        <v>0.1046968086757031</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.07160364449981191</v>
+      </c>
+      <c r="E23">
+        <v>-0.5612254437679502</v>
+      </c>
+      <c r="F23">
+        <v>-0.2482850939160663</v>
+      </c>
+      <c r="G23">
+        <v>-0.07212574316122849</v>
+      </c>
+      <c r="H23">
+        <v>0.1412249592339106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07029780144095374</v>
+        <v>0.0797422046701995</v>
       </c>
       <c r="C24">
-        <v>-0.05121324027402137</v>
+        <v>0.03358448071919762</v>
       </c>
       <c r="D24">
-        <v>0.05904416366099951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05989492862777906</v>
+      </c>
+      <c r="E24">
+        <v>-0.01772577483224324</v>
+      </c>
+      <c r="F24">
+        <v>0.03446630371390943</v>
+      </c>
+      <c r="G24">
+        <v>0.01060465060836019</v>
+      </c>
+      <c r="H24">
+        <v>-0.05134882684531834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0707220146200977</v>
+        <v>0.0778127917369312</v>
       </c>
       <c r="C25">
-        <v>-0.05707592349453202</v>
+        <v>0.03822763507070819</v>
       </c>
       <c r="D25">
-        <v>0.06554966942789438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05278192727149451</v>
+      </c>
+      <c r="E25">
+        <v>-0.02150595963671488</v>
+      </c>
+      <c r="F25">
+        <v>0.02389857196014776</v>
+      </c>
+      <c r="G25">
+        <v>0.01812607972722029</v>
+      </c>
+      <c r="H25">
+        <v>-0.05357126939337851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04494724441318957</v>
+        <v>0.0477697470915717</v>
       </c>
       <c r="C26">
-        <v>-0.0106962480949465</v>
+        <v>0.003012839695652712</v>
       </c>
       <c r="D26">
-        <v>0.01307690012478823</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01777597372790013</v>
+      </c>
+      <c r="E26">
+        <v>-0.0541508185202462</v>
+      </c>
+      <c r="F26">
+        <v>0.02055546365789194</v>
+      </c>
+      <c r="G26">
+        <v>-0.009819880863391662</v>
+      </c>
+      <c r="H26">
+        <v>-0.05307325244300511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0524551268313688</v>
+        <v>0.06207300386549246</v>
       </c>
       <c r="C28">
-        <v>-0.07623289171704076</v>
+        <v>0.08802397255613847</v>
       </c>
       <c r="D28">
-        <v>-0.3138089407812902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3083143607577654</v>
+      </c>
+      <c r="E28">
+        <v>-0.02742007303362753</v>
+      </c>
+      <c r="F28">
+        <v>0.05292486912275759</v>
+      </c>
+      <c r="G28">
+        <v>0.03232949806172937</v>
+      </c>
+      <c r="H28">
+        <v>0.04223606166290499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03977831878298724</v>
+        <v>0.04846614667578673</v>
       </c>
       <c r="C29">
-        <v>-0.03053047861753876</v>
+        <v>0.0259861680800403</v>
       </c>
       <c r="D29">
-        <v>0.005185973231274451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006925135416785688</v>
+      </c>
+      <c r="E29">
+        <v>-0.05405730550992804</v>
+      </c>
+      <c r="F29">
+        <v>0.001846534281905737</v>
+      </c>
+      <c r="G29">
+        <v>-0.01093430495986719</v>
+      </c>
+      <c r="H29">
+        <v>-0.07911106372163894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1236871542573596</v>
+        <v>0.1310687622238873</v>
       </c>
       <c r="C30">
-        <v>-0.0928176492310588</v>
+        <v>0.06406940140900889</v>
       </c>
       <c r="D30">
-        <v>0.1162735205859268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06916779279653851</v>
+      </c>
+      <c r="E30">
+        <v>-0.08601731630414589</v>
+      </c>
+      <c r="F30">
+        <v>-0.02831559630330096</v>
+      </c>
+      <c r="G30">
+        <v>0.08169429668408923</v>
+      </c>
+      <c r="H30">
+        <v>0.05154458945360592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04251794753973291</v>
+        <v>0.04856579403572524</v>
       </c>
       <c r="C31">
-        <v>-0.02301963652166669</v>
+        <v>0.0146411975361273</v>
       </c>
       <c r="D31">
-        <v>0.0264220270890361</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0268222842813637</v>
+      </c>
+      <c r="E31">
+        <v>-0.02688859867453016</v>
+      </c>
+      <c r="F31">
+        <v>0.009257935160696578</v>
+      </c>
+      <c r="G31">
+        <v>-0.0300391304474632</v>
+      </c>
+      <c r="H31">
+        <v>-0.06226087162270381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03867559156655322</v>
+        <v>0.03890378732904896</v>
       </c>
       <c r="C32">
-        <v>-0.02686946637162086</v>
+        <v>0.01867837262051692</v>
       </c>
       <c r="D32">
-        <v>0.02306961771170844</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01248767239300985</v>
+      </c>
+      <c r="E32">
+        <v>-0.06557862203352263</v>
+      </c>
+      <c r="F32">
+        <v>-0.02114856203294071</v>
+      </c>
+      <c r="G32">
+        <v>0.02001420502107533</v>
+      </c>
+      <c r="H32">
+        <v>-0.07221517214864361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08281829746587169</v>
+        <v>0.09603078636949663</v>
       </c>
       <c r="C33">
-        <v>-0.04365602665888588</v>
+        <v>0.02696199629408272</v>
       </c>
       <c r="D33">
-        <v>0.06425912353570952</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04778591093631059</v>
+      </c>
+      <c r="E33">
+        <v>-0.01489995160629605</v>
+      </c>
+      <c r="F33">
+        <v>0.005029718956716001</v>
+      </c>
+      <c r="G33">
+        <v>-0.005718334188351065</v>
+      </c>
+      <c r="H33">
+        <v>-0.05308340369778562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0559977311956382</v>
+        <v>0.06253657811170962</v>
       </c>
       <c r="C34">
-        <v>-0.02841166097812719</v>
+        <v>0.01416682083155969</v>
       </c>
       <c r="D34">
-        <v>0.05645542206404301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0537087412714569</v>
+      </c>
+      <c r="E34">
+        <v>-0.009309259222095795</v>
+      </c>
+      <c r="F34">
+        <v>0.01722533458066882</v>
+      </c>
+      <c r="G34">
+        <v>-0.002265092910610274</v>
+      </c>
+      <c r="H34">
+        <v>-0.05503873305643265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0360836261993382</v>
+        <v>0.03934743041024288</v>
       </c>
       <c r="C35">
-        <v>-0.008349031745271667</v>
+        <v>0.003479746658671251</v>
       </c>
       <c r="D35">
-        <v>0.008251492137828543</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008386278431226895</v>
+      </c>
+      <c r="E35">
+        <v>-0.01732760066439261</v>
+      </c>
+      <c r="F35">
+        <v>-0.01642247292154588</v>
+      </c>
+      <c r="G35">
+        <v>-0.01263356327185381</v>
+      </c>
+      <c r="H35">
+        <v>-0.01617169870302805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02124424767151577</v>
+        <v>0.02845159002060426</v>
       </c>
       <c r="C36">
-        <v>-0.01690973986786751</v>
+        <v>0.01393012518694931</v>
       </c>
       <c r="D36">
-        <v>0.02225071036789311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01503571026188271</v>
+      </c>
+      <c r="E36">
+        <v>-0.0431291384168761</v>
+      </c>
+      <c r="F36">
+        <v>0.01222964760741066</v>
+      </c>
+      <c r="G36">
+        <v>-0.009785911933486246</v>
+      </c>
+      <c r="H36">
+        <v>-0.04296074255524571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04041667486222619</v>
+        <v>0.04498499786444595</v>
       </c>
       <c r="C38">
-        <v>-0.004684398550699278</v>
+        <v>-0.0004488208580037736</v>
       </c>
       <c r="D38">
-        <v>0.0175287259004473</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01676954314858874</v>
+      </c>
+      <c r="E38">
+        <v>-0.05389501902529808</v>
+      </c>
+      <c r="F38">
+        <v>-0.01387827804807636</v>
+      </c>
+      <c r="G38">
+        <v>0.004907873811749981</v>
+      </c>
+      <c r="H38">
+        <v>-0.03210744642670443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08965806798969517</v>
+        <v>0.1019071140180797</v>
       </c>
       <c r="C39">
-        <v>-0.07295455324388669</v>
+        <v>0.05150892150888601</v>
       </c>
       <c r="D39">
-        <v>0.05859762864668921</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06019207647719615</v>
+      </c>
+      <c r="E39">
+        <v>-0.0001371100904342876</v>
+      </c>
+      <c r="F39">
+        <v>0.002978502513326915</v>
+      </c>
+      <c r="G39">
+        <v>0.03304329336712821</v>
+      </c>
+      <c r="H39">
+        <v>-0.04295735579149036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07359582720210196</v>
+        <v>0.07073606094544191</v>
       </c>
       <c r="C40">
-        <v>-0.04096304037077098</v>
+        <v>0.02024105509464134</v>
       </c>
       <c r="D40">
-        <v>-0.003424642623315414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01164874372556345</v>
+      </c>
+      <c r="E40">
+        <v>-0.01682303385076819</v>
+      </c>
+      <c r="F40">
+        <v>-0.05791516511968595</v>
+      </c>
+      <c r="G40">
+        <v>0.05620739756175307</v>
+      </c>
+      <c r="H40">
+        <v>0.1086560956811889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04090171700306499</v>
+        <v>0.04377366232553465</v>
       </c>
       <c r="C41">
-        <v>-0.005968406070734078</v>
+        <v>-0.001633252000624176</v>
       </c>
       <c r="D41">
-        <v>0.03747941461316533</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03420683771926387</v>
+      </c>
+      <c r="E41">
+        <v>-0.003653362216768527</v>
+      </c>
+      <c r="F41">
+        <v>-0.01438581842616258</v>
+      </c>
+      <c r="G41">
+        <v>0.009251755073909853</v>
+      </c>
+      <c r="H41">
+        <v>-0.03415435320551517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04693739264491849</v>
+        <v>0.05791177620013981</v>
       </c>
       <c r="C43">
-        <v>-0.02624541150422403</v>
+        <v>0.01846023986293114</v>
       </c>
       <c r="D43">
-        <v>0.02013219898348926</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02606357585323753</v>
+      </c>
+      <c r="E43">
+        <v>-0.02072987697588529</v>
+      </c>
+      <c r="F43">
+        <v>0.01191237999456004</v>
+      </c>
+      <c r="G43">
+        <v>-0.01803625232659666</v>
+      </c>
+      <c r="H43">
+        <v>-0.05375841185094941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09146232403327931</v>
+        <v>0.09534839173720067</v>
       </c>
       <c r="C44">
-        <v>-0.09282069748182571</v>
+        <v>0.06616465728634517</v>
       </c>
       <c r="D44">
-        <v>0.08162180800618185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0583230102580151</v>
+      </c>
+      <c r="E44">
+        <v>-0.08915317078861676</v>
+      </c>
+      <c r="F44">
+        <v>0.03765211319891891</v>
+      </c>
+      <c r="G44">
+        <v>0.02827314758843186</v>
+      </c>
+      <c r="H44">
+        <v>-0.0108450804332037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02398956602658712</v>
+        <v>0.03338058206735308</v>
       </c>
       <c r="C46">
-        <v>-0.01362179880396317</v>
+        <v>0.01162515760780521</v>
       </c>
       <c r="D46">
-        <v>0.02224779513568165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03262269980345174</v>
+      </c>
+      <c r="E46">
+        <v>-0.02876333550110483</v>
+      </c>
+      <c r="F46">
+        <v>0.01312646614350785</v>
+      </c>
+      <c r="G46">
+        <v>-0.006028509281503129</v>
+      </c>
+      <c r="H46">
+        <v>-0.03964722937923966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0290717491656355</v>
+        <v>0.03757207261531839</v>
       </c>
       <c r="C47">
-        <v>-0.02437671436624695</v>
+        <v>0.02043645059055586</v>
       </c>
       <c r="D47">
-        <v>0.01194461140667648</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01023356742481432</v>
+      </c>
+      <c r="E47">
+        <v>-0.05140435418962033</v>
+      </c>
+      <c r="F47">
+        <v>0.007031391278096614</v>
+      </c>
+      <c r="G47">
+        <v>-0.04283030059720652</v>
+      </c>
+      <c r="H47">
+        <v>-0.02446448483938417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03247116178514919</v>
+        <v>0.03764893567041895</v>
       </c>
       <c r="C48">
-        <v>-0.01846760413232244</v>
+        <v>0.01141470001917444</v>
       </c>
       <c r="D48">
-        <v>0.03053097546251125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01948648606355</v>
+      </c>
+      <c r="E48">
+        <v>-0.04484749842192747</v>
+      </c>
+      <c r="F48">
+        <v>-0.001343323926056617</v>
+      </c>
+      <c r="G48">
+        <v>0.01003013860872952</v>
+      </c>
+      <c r="H48">
+        <v>-0.03982713861043625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.159724153035846</v>
+        <v>0.1877933572637389</v>
       </c>
       <c r="C49">
-        <v>-0.0626107899344145</v>
+        <v>0.03768425106380552</v>
       </c>
       <c r="D49">
-        <v>-0.01281485376112597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02965391073584325</v>
+      </c>
+      <c r="E49">
+        <v>0.1438204366361838</v>
+      </c>
+      <c r="F49">
+        <v>0.08043855490186297</v>
+      </c>
+      <c r="G49">
+        <v>-0.04997203865036514</v>
+      </c>
+      <c r="H49">
+        <v>0.2256920738473658</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03873039109928843</v>
+        <v>0.04609161221887603</v>
       </c>
       <c r="C50">
-        <v>-0.02608920070750351</v>
+        <v>0.01888383448680907</v>
       </c>
       <c r="D50">
-        <v>0.03691703976830519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03016180344780286</v>
+      </c>
+      <c r="E50">
+        <v>-0.0505312885998213</v>
+      </c>
+      <c r="F50">
+        <v>0.009798934017374359</v>
+      </c>
+      <c r="G50">
+        <v>-0.02393976719750324</v>
+      </c>
+      <c r="H50">
+        <v>-0.06081895135312567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02626714909226327</v>
+        <v>0.02979988727553411</v>
       </c>
       <c r="C51">
-        <v>-0.009992903858773772</v>
+        <v>0.004455860802747035</v>
       </c>
       <c r="D51">
-        <v>0.01630153712843898</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01398925012427403</v>
+      </c>
+      <c r="E51">
+        <v>-0.01412870046510849</v>
+      </c>
+      <c r="F51">
+        <v>0.0190232248911729</v>
+      </c>
+      <c r="G51">
+        <v>-0.003101744201245051</v>
+      </c>
+      <c r="H51">
+        <v>0.002057591122847719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.151423242918648</v>
+        <v>0.1622349168170298</v>
       </c>
       <c r="C53">
-        <v>-0.0801719802127811</v>
+        <v>0.05289321637098862</v>
       </c>
       <c r="D53">
-        <v>0.02468960416274053</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01936686252919934</v>
+      </c>
+      <c r="E53">
+        <v>0.02499816365760635</v>
+      </c>
+      <c r="F53">
+        <v>0.02053405342519005</v>
+      </c>
+      <c r="G53">
+        <v>-0.02421938180634873</v>
+      </c>
+      <c r="H53">
+        <v>-0.1792576373157237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05465416593210422</v>
+        <v>0.05787899486689489</v>
       </c>
       <c r="C54">
-        <v>-0.02612740146538234</v>
+        <v>0.01513748522082874</v>
       </c>
       <c r="D54">
-        <v>0.02427202015935126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01787122500934174</v>
+      </c>
+      <c r="E54">
+        <v>-0.04964068284109922</v>
+      </c>
+      <c r="F54">
+        <v>0.003386025864480729</v>
+      </c>
+      <c r="G54">
+        <v>0.009714392867278964</v>
+      </c>
+      <c r="H54">
+        <v>-0.04620514546350953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0993782904103951</v>
+        <v>0.103471734495364</v>
       </c>
       <c r="C55">
-        <v>-0.05515064495850024</v>
+        <v>0.03486535460852207</v>
       </c>
       <c r="D55">
-        <v>0.02736932430910987</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02352967360949851</v>
+      </c>
+      <c r="E55">
+        <v>-0.01766483733810038</v>
+      </c>
+      <c r="F55">
+        <v>0.01370777438833512</v>
+      </c>
+      <c r="G55">
+        <v>-0.01878668265253679</v>
+      </c>
+      <c r="H55">
+        <v>-0.1519561705519329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1480777761410689</v>
+        <v>0.1615212470522769</v>
       </c>
       <c r="C56">
-        <v>-0.09207232553659174</v>
+        <v>0.06447249701107374</v>
       </c>
       <c r="D56">
-        <v>0.02533780646673741</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02030718319095121</v>
+      </c>
+      <c r="E56">
+        <v>0.02420066916157716</v>
+      </c>
+      <c r="F56">
+        <v>0.03754157502447437</v>
+      </c>
+      <c r="G56">
+        <v>-0.03599662721199231</v>
+      </c>
+      <c r="H56">
+        <v>-0.1765099090254799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1273458956137207</v>
+        <v>0.09868165495927694</v>
       </c>
       <c r="C58">
-        <v>-0.007514143120132918</v>
+        <v>-0.03656104825898923</v>
       </c>
       <c r="D58">
-        <v>0.03046346133101028</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04238743600555066</v>
+      </c>
+      <c r="E58">
+        <v>-0.1664026546503366</v>
+      </c>
+      <c r="F58">
+        <v>-0.02181238308668801</v>
+      </c>
+      <c r="G58">
+        <v>-0.02936138684654005</v>
+      </c>
+      <c r="H58">
+        <v>0.2650200341383711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1204796271075147</v>
+        <v>0.1368729825808605</v>
       </c>
       <c r="C59">
-        <v>-0.08262126811518142</v>
+        <v>0.08895743901960229</v>
       </c>
       <c r="D59">
-        <v>-0.3534856966740804</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3630933328028328</v>
+      </c>
+      <c r="E59">
+        <v>-0.02717318772502409</v>
+      </c>
+      <c r="F59">
+        <v>0.01761240249051521</v>
+      </c>
+      <c r="G59">
+        <v>-0.02540477654719348</v>
+      </c>
+      <c r="H59">
+        <v>0.00246746036292803</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2005483423735405</v>
+        <v>0.2322433616687605</v>
       </c>
       <c r="C60">
-        <v>-0.1048313458168072</v>
+        <v>0.07018332903670187</v>
       </c>
       <c r="D60">
-        <v>0.0139761783369881</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04181970988211326</v>
+      </c>
+      <c r="E60">
+        <v>0.08922423231772478</v>
+      </c>
+      <c r="F60">
+        <v>0.06978405535920154</v>
+      </c>
+      <c r="G60">
+        <v>0.02914381559706691</v>
+      </c>
+      <c r="H60">
+        <v>0.1479275627062</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07938604203943156</v>
+        <v>0.08865595183241375</v>
       </c>
       <c r="C61">
-        <v>-0.05292808369163802</v>
+        <v>0.03764818044545495</v>
       </c>
       <c r="D61">
-        <v>0.04315346336172503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04081186439964717</v>
+      </c>
+      <c r="E61">
+        <v>0.003208600932865649</v>
+      </c>
+      <c r="F61">
+        <v>0.003636127585030027</v>
+      </c>
+      <c r="G61">
+        <v>-0.001004182381403155</v>
+      </c>
+      <c r="H61">
+        <v>-0.06206676605242151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1285676335836459</v>
+        <v>0.138989567865072</v>
       </c>
       <c r="C62">
-        <v>-0.06638839082128997</v>
+        <v>0.04064508137008428</v>
       </c>
       <c r="D62">
-        <v>0.03165433391309121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03299362645036033</v>
+      </c>
+      <c r="E62">
+        <v>0.06136656853173243</v>
+      </c>
+      <c r="F62">
+        <v>0.01763292126145892</v>
+      </c>
+      <c r="G62">
+        <v>0.007738951799890139</v>
+      </c>
+      <c r="H62">
+        <v>-0.1967152589998565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05068679521436623</v>
+        <v>0.05070937723741011</v>
       </c>
       <c r="C63">
-        <v>-0.02472194587881284</v>
+        <v>0.01315601593864969</v>
       </c>
       <c r="D63">
-        <v>0.02243832907390562</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02030408051674737</v>
+      </c>
+      <c r="E63">
+        <v>-0.05050946879776499</v>
+      </c>
+      <c r="F63">
+        <v>-0.01642139037104769</v>
+      </c>
+      <c r="G63">
+        <v>0.01956421269483902</v>
+      </c>
+      <c r="H63">
+        <v>-0.05727984137460392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1027913579212346</v>
+        <v>0.1083214526769054</v>
       </c>
       <c r="C64">
-        <v>-0.02325545332471497</v>
+        <v>0.004597027948572294</v>
       </c>
       <c r="D64">
-        <v>0.05941042300912612</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03907404925126316</v>
+      </c>
+      <c r="E64">
+        <v>-0.04764777649167067</v>
+      </c>
+      <c r="F64">
+        <v>0.03982930398092045</v>
+      </c>
+      <c r="G64">
+        <v>0.04829906657450045</v>
+      </c>
+      <c r="H64">
+        <v>-0.06109317484185389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1221963018077237</v>
+        <v>0.1258084957122979</v>
       </c>
       <c r="C65">
-        <v>-0.06286837452028171</v>
+        <v>0.03986575915507978</v>
       </c>
       <c r="D65">
-        <v>-0.01708888116320765</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.004310697224681405</v>
+      </c>
+      <c r="E65">
+        <v>-0.01535737471727108</v>
+      </c>
+      <c r="F65">
+        <v>0.04743305077410515</v>
+      </c>
+      <c r="G65">
+        <v>0.06193247712972978</v>
+      </c>
+      <c r="H65">
+        <v>0.1393626300786931</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1433813110910283</v>
+        <v>0.1546397023399712</v>
       </c>
       <c r="C66">
-        <v>-0.07973456114100716</v>
+        <v>0.04901931428793883</v>
       </c>
       <c r="D66">
-        <v>0.1097436624946646</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09403308297405763</v>
+      </c>
+      <c r="E66">
+        <v>0.03115327192914116</v>
+      </c>
+      <c r="F66">
+        <v>0.01806685697733399</v>
+      </c>
+      <c r="G66">
+        <v>0.04467484414808568</v>
+      </c>
+      <c r="H66">
+        <v>-0.1155736572042543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07262262714694741</v>
+        <v>0.08451486729387502</v>
       </c>
       <c r="C67">
-        <v>-0.01510248226472967</v>
+        <v>0.005842864504990899</v>
       </c>
       <c r="D67">
-        <v>0.02286484043753703</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02999902579057699</v>
+      </c>
+      <c r="E67">
+        <v>-0.02450294180090747</v>
+      </c>
+      <c r="F67">
+        <v>0.0184201289413789</v>
+      </c>
+      <c r="G67">
+        <v>-0.01474533467913241</v>
+      </c>
+      <c r="H67">
+        <v>-0.03541117032284782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05922360454005441</v>
+        <v>0.05733671909766953</v>
       </c>
       <c r="C68">
-        <v>-0.05230397196761463</v>
+        <v>0.05991055576265609</v>
       </c>
       <c r="D68">
-        <v>-0.2525624255396479</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2694207586359559</v>
+      </c>
+      <c r="E68">
+        <v>-0.036191251346942</v>
+      </c>
+      <c r="F68">
+        <v>0.01216046310270274</v>
+      </c>
+      <c r="G68">
+        <v>-0.01726027383483081</v>
+      </c>
+      <c r="H68">
+        <v>-0.002762798242767449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05156363408384808</v>
+        <v>0.05322846764391899</v>
       </c>
       <c r="C69">
-        <v>-0.01764538775239416</v>
+        <v>0.006185050481215804</v>
       </c>
       <c r="D69">
-        <v>0.01953199158628496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01543776992610566</v>
+      </c>
+      <c r="E69">
+        <v>-0.02441357929787877</v>
+      </c>
+      <c r="F69">
+        <v>-0.008902397267337344</v>
+      </c>
+      <c r="G69">
+        <v>-0.02125452639909121</v>
+      </c>
+      <c r="H69">
+        <v>-0.04774262602809713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004060046608307131</v>
+        <v>0.02723462336690255</v>
       </c>
       <c r="C70">
-        <v>0.005814815146181688</v>
+        <v>-0.0002073133983712339</v>
       </c>
       <c r="D70">
-        <v>-0.002133789006923003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.004349081263028473</v>
+      </c>
+      <c r="E70">
+        <v>0.02045262873452199</v>
+      </c>
+      <c r="F70">
+        <v>0.01945988230900292</v>
+      </c>
+      <c r="G70">
+        <v>-0.02526067280499758</v>
+      </c>
+      <c r="H70">
+        <v>0.02398936372086804</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05888665412268382</v>
+        <v>0.06005595173219952</v>
       </c>
       <c r="C71">
-        <v>-0.05265129251191081</v>
+        <v>0.06425161096004699</v>
       </c>
       <c r="D71">
-        <v>-0.2934118348539618</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2954471245382598</v>
+      </c>
+      <c r="E71">
+        <v>-0.03323042042254364</v>
+      </c>
+      <c r="F71">
+        <v>0.03940825052639253</v>
+      </c>
+      <c r="G71">
+        <v>-0.004848773705917688</v>
+      </c>
+      <c r="H71">
+        <v>-0.007629753530672528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1412444849501803</v>
+        <v>0.1461212129759872</v>
       </c>
       <c r="C72">
-        <v>-0.06701311946463047</v>
+        <v>0.03650069480457889</v>
       </c>
       <c r="D72">
-        <v>-0.006463086994793157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008263252496590745</v>
+      </c>
+      <c r="E72">
+        <v>0.1142097903350683</v>
+      </c>
+      <c r="F72">
+        <v>-0.1535902455371812</v>
+      </c>
+      <c r="G72">
+        <v>0.1228650382405849</v>
+      </c>
+      <c r="H72">
+        <v>-0.01861656309515532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2725653839423196</v>
+        <v>0.2869302274592344</v>
       </c>
       <c r="C73">
-        <v>-0.1135539605344967</v>
+        <v>0.04728419720046339</v>
       </c>
       <c r="D73">
-        <v>0.04907620941970255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09941905629918016</v>
+      </c>
+      <c r="E73">
+        <v>0.2105232698666133</v>
+      </c>
+      <c r="F73">
+        <v>0.1280720180294682</v>
+      </c>
+      <c r="G73">
+        <v>-0.1338619760980459</v>
+      </c>
+      <c r="H73">
+        <v>0.4987678985214655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07788805769921747</v>
+        <v>0.09106385410522914</v>
       </c>
       <c r="C74">
-        <v>-0.07614247673168771</v>
+        <v>0.05931647046711691</v>
       </c>
       <c r="D74">
-        <v>0.01564973279482848</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03012559062892562</v>
+      </c>
+      <c r="E74">
+        <v>0.005101105372253108</v>
+      </c>
+      <c r="F74">
+        <v>0.0006560123299589181</v>
+      </c>
+      <c r="G74">
+        <v>-0.05830225649419449</v>
+      </c>
+      <c r="H74">
+        <v>-0.1142442723316373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09512429549363458</v>
+        <v>0.1004782625331784</v>
       </c>
       <c r="C75">
-        <v>-0.05500815697063314</v>
+        <v>0.02981855234242946</v>
       </c>
       <c r="D75">
-        <v>0.01009551825515566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0150070209533842</v>
+      </c>
+      <c r="E75">
+        <v>-0.008607070249211113</v>
+      </c>
+      <c r="F75">
+        <v>0.02554607736704856</v>
+      </c>
+      <c r="G75">
+        <v>-0.02728738992321844</v>
+      </c>
+      <c r="H75">
+        <v>-0.1159114818235567</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1290181382460409</v>
+        <v>0.1397662020665432</v>
       </c>
       <c r="C76">
-        <v>-0.0839579252231904</v>
+        <v>0.05760686572237156</v>
       </c>
       <c r="D76">
-        <v>0.05575703492778914</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05093025285354909</v>
+      </c>
+      <c r="E76">
+        <v>-0.02874382416810049</v>
+      </c>
+      <c r="F76">
+        <v>0.04531521311086207</v>
+      </c>
+      <c r="G76">
+        <v>-0.02094720547113483</v>
+      </c>
+      <c r="H76">
+        <v>-0.2005136139876207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.113820912548049</v>
+        <v>0.1086928341604808</v>
       </c>
       <c r="C77">
-        <v>-0.02220087765999419</v>
+        <v>-0.006728030374965767</v>
       </c>
       <c r="D77">
-        <v>0.05058243052235269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01947095058099777</v>
+      </c>
+      <c r="E77">
+        <v>-0.04628498603587441</v>
+      </c>
+      <c r="F77">
+        <v>0.1019720060613276</v>
+      </c>
+      <c r="G77">
+        <v>0.8915270169230345</v>
+      </c>
+      <c r="H77">
+        <v>0.0696924201388706</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1013779592181611</v>
+        <v>0.1417615790824325</v>
       </c>
       <c r="C78">
-        <v>-0.04276630693372718</v>
+        <v>0.0359644875037288</v>
       </c>
       <c r="D78">
-        <v>0.08048525432553333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08164017428187358</v>
+      </c>
+      <c r="E78">
+        <v>-0.06015785637576963</v>
+      </c>
+      <c r="F78">
+        <v>0.03870132259437802</v>
+      </c>
+      <c r="G78">
+        <v>0.08523364244172824</v>
+      </c>
+      <c r="H78">
+        <v>0.0498927910204679</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1462259121217079</v>
+        <v>0.1517118969277523</v>
       </c>
       <c r="C79">
-        <v>-0.07678911549522865</v>
+        <v>0.04467676421331612</v>
       </c>
       <c r="D79">
-        <v>0.03177768187746693</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0274487847326185</v>
+      </c>
+      <c r="E79">
+        <v>0.0161218674182952</v>
+      </c>
+      <c r="F79">
+        <v>0.02127844734145037</v>
+      </c>
+      <c r="G79">
+        <v>-0.04075266959340759</v>
+      </c>
+      <c r="H79">
+        <v>-0.1755994370841618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04490342548503767</v>
+        <v>0.04284632780226562</v>
       </c>
       <c r="C80">
-        <v>-0.01468459267802314</v>
+        <v>0.005588187823345961</v>
       </c>
       <c r="D80">
-        <v>0.0278890899306964</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01797360121829392</v>
+      </c>
+      <c r="E80">
+        <v>0.01308167099127626</v>
+      </c>
+      <c r="F80">
+        <v>-0.0008879931997469293</v>
+      </c>
+      <c r="G80">
+        <v>-0.03004757827211121</v>
+      </c>
+      <c r="H80">
+        <v>-0.03215030776954994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1150376993370723</v>
+        <v>0.1204334555310399</v>
       </c>
       <c r="C81">
-        <v>-0.06398638993814386</v>
+        <v>0.03811016152423281</v>
       </c>
       <c r="D81">
-        <v>0.03386828814630957</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02319443167925269</v>
+      </c>
+      <c r="E81">
+        <v>-0.02194254835365777</v>
+      </c>
+      <c r="F81">
+        <v>0.01678829178491311</v>
+      </c>
+      <c r="G81">
+        <v>-0.06470652364171646</v>
+      </c>
+      <c r="H81">
+        <v>-0.1472914257840502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1294213819735478</v>
+        <v>0.1310992401550284</v>
       </c>
       <c r="C82">
-        <v>-0.0799583541358108</v>
+        <v>0.05179762599930332</v>
       </c>
       <c r="D82">
-        <v>0.0212640979911399</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02805412410564996</v>
+      </c>
+      <c r="E82">
+        <v>0.008965422690728253</v>
+      </c>
+      <c r="F82">
+        <v>0.05776780136664484</v>
+      </c>
+      <c r="G82">
+        <v>-0.05777723658574626</v>
+      </c>
+      <c r="H82">
+        <v>-0.2174423723608284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07497885860112342</v>
+        <v>0.08661295985550969</v>
       </c>
       <c r="C83">
-        <v>0.0109819779985819</v>
+        <v>-0.0243752175408932</v>
       </c>
       <c r="D83">
-        <v>0.02303688314062759</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03015489582240829</v>
+      </c>
+      <c r="E83">
+        <v>-0.02335617354823779</v>
+      </c>
+      <c r="F83">
+        <v>0.05580641803394122</v>
+      </c>
+      <c r="G83">
+        <v>-0.0825549943050673</v>
+      </c>
+      <c r="H83">
+        <v>0.05663093588777564</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02799281525676233</v>
+        <v>0.03725691069530068</v>
       </c>
       <c r="C84">
-        <v>-0.02816385388267407</v>
+        <v>0.02257099906877721</v>
       </c>
       <c r="D84">
-        <v>0.03203164738764629</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03249714362138102</v>
+      </c>
+      <c r="E84">
+        <v>-0.02844268423628534</v>
+      </c>
+      <c r="F84">
+        <v>-0.05562189728664781</v>
+      </c>
+      <c r="G84">
+        <v>-0.06643450253675853</v>
+      </c>
+      <c r="H84">
+        <v>0.00312731507963922</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1189670788238704</v>
+        <v>0.1212564244467714</v>
       </c>
       <c r="C85">
-        <v>-0.05711483399105554</v>
+        <v>0.03000051182913519</v>
       </c>
       <c r="D85">
-        <v>0.02205418458657267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02143981434720019</v>
+      </c>
+      <c r="E85">
+        <v>-0.02042540782271949</v>
+      </c>
+      <c r="F85">
+        <v>0.03930407859595727</v>
+      </c>
+      <c r="G85">
+        <v>-0.03472476619458761</v>
+      </c>
+      <c r="H85">
+        <v>-0.15314782660058</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04938867140487884</v>
+        <v>0.05766231029740286</v>
       </c>
       <c r="C86">
-        <v>-0.02992570378767481</v>
+        <v>0.01938656692300874</v>
       </c>
       <c r="D86">
-        <v>0.02553217493714718</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02643602989593667</v>
+      </c>
+      <c r="E86">
+        <v>-0.06998002295041678</v>
+      </c>
+      <c r="F86">
+        <v>0.02513177886539526</v>
+      </c>
+      <c r="G86">
+        <v>-0.02120295989303058</v>
+      </c>
+      <c r="H86">
+        <v>0.01119074553832888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1178592538772957</v>
+        <v>0.1220173582171115</v>
       </c>
       <c r="C87">
-        <v>-0.07209179633122927</v>
+        <v>0.03815770546964807</v>
       </c>
       <c r="D87">
-        <v>0.07218142189357395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07024286987319858</v>
+      </c>
+      <c r="E87">
+        <v>-0.0265820421373633</v>
+      </c>
+      <c r="F87">
+        <v>-0.0001742898111269393</v>
+      </c>
+      <c r="G87">
+        <v>0.134574857259845</v>
+      </c>
+      <c r="H87">
+        <v>0.04394148802455566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05221535426932877</v>
+        <v>0.06005777864738251</v>
       </c>
       <c r="C88">
-        <v>-0.02868538994822309</v>
+        <v>0.01869251262946864</v>
       </c>
       <c r="D88">
-        <v>0.02199786625492681</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03382656973280891</v>
+      </c>
+      <c r="E88">
+        <v>-0.02255208146241942</v>
+      </c>
+      <c r="F88">
+        <v>0.004928213673639681</v>
+      </c>
+      <c r="G88">
+        <v>0.00449485077179212</v>
+      </c>
+      <c r="H88">
+        <v>-0.05549253108262577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08491505877762111</v>
+        <v>0.09438282137776247</v>
       </c>
       <c r="C89">
-        <v>-0.07210317445376375</v>
+        <v>0.08433372787855896</v>
       </c>
       <c r="D89">
-        <v>-0.3239628238958998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3476111241244038</v>
+      </c>
+      <c r="E89">
+        <v>-0.07181037548266982</v>
+      </c>
+      <c r="F89">
+        <v>0.07908135418260363</v>
+      </c>
+      <c r="G89">
+        <v>-0.02870262859958564</v>
+      </c>
+      <c r="H89">
+        <v>-0.009891994153272113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0749984444014252</v>
+        <v>0.07911731937036894</v>
       </c>
       <c r="C90">
-        <v>-0.06309853719252281</v>
+        <v>0.07061194538856404</v>
       </c>
       <c r="D90">
-        <v>-0.3201056090931803</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3064791214892129</v>
+      </c>
+      <c r="E90">
+        <v>-0.06040599800125541</v>
+      </c>
+      <c r="F90">
+        <v>-0.003060991135995428</v>
+      </c>
+      <c r="G90">
+        <v>-0.004271659999000727</v>
+      </c>
+      <c r="H90">
+        <v>0.0005602398830341346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08602023577718734</v>
+        <v>0.08978405833224096</v>
       </c>
       <c r="C91">
-        <v>-0.05732269281754022</v>
+        <v>0.03484153711246527</v>
       </c>
       <c r="D91">
-        <v>0.03509479668206691</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03234989776219713</v>
+      </c>
+      <c r="E91">
+        <v>-0.01424766341662082</v>
+      </c>
+      <c r="F91">
+        <v>0.005507544560530225</v>
+      </c>
+      <c r="G91">
+        <v>-0.05544013582015757</v>
+      </c>
+      <c r="H91">
+        <v>-0.07945820482241264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.0751836038627622</v>
+        <v>0.0787757262017344</v>
       </c>
       <c r="C92">
-        <v>-0.07435733931635428</v>
+        <v>0.08490885242492449</v>
       </c>
       <c r="D92">
-        <v>-0.338725018529307</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3444123832034239</v>
+      </c>
+      <c r="E92">
+        <v>-0.04603054390255232</v>
+      </c>
+      <c r="F92">
+        <v>0.03855615307477743</v>
+      </c>
+      <c r="G92">
+        <v>0.01233723228532691</v>
+      </c>
+      <c r="H92">
+        <v>-0.01516555925495514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06528740927540991</v>
+        <v>0.07536972074766972</v>
       </c>
       <c r="C93">
-        <v>-0.06635694995184346</v>
+        <v>0.08084230365890352</v>
       </c>
       <c r="D93">
-        <v>-0.3118171432854203</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3041626421028142</v>
+      </c>
+      <c r="E93">
+        <v>-0.03957452356186292</v>
+      </c>
+      <c r="F93">
+        <v>0.03663971763328833</v>
+      </c>
+      <c r="G93">
+        <v>0.01636466014268933</v>
+      </c>
+      <c r="H93">
+        <v>0.01319031027122568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1316835660144774</v>
+        <v>0.1262772882379708</v>
       </c>
       <c r="C94">
-        <v>-0.05637801473891421</v>
+        <v>0.02140974528724059</v>
       </c>
       <c r="D94">
-        <v>0.0480029670412983</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04871202299592874</v>
+      </c>
+      <c r="E94">
+        <v>0.004673295656912155</v>
+      </c>
+      <c r="F94">
+        <v>0.02291170294137452</v>
+      </c>
+      <c r="G94">
+        <v>-0.0605788073083773</v>
+      </c>
+      <c r="H94">
+        <v>-0.09505739137591111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1187439771939382</v>
+        <v>0.1262481638355542</v>
       </c>
       <c r="C95">
-        <v>-0.03121350172517765</v>
+        <v>0.003878342345515751</v>
       </c>
       <c r="D95">
-        <v>0.06070217343106154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07071018589182157</v>
+      </c>
+      <c r="E95">
+        <v>-0.01719634191635741</v>
+      </c>
+      <c r="F95">
+        <v>0.03693433959164401</v>
+      </c>
+      <c r="G95">
+        <v>0.01128945608636852</v>
+      </c>
+      <c r="H95">
+        <v>0.04358170242042705</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2201778647060217</v>
+        <v>0.2091343419742658</v>
       </c>
       <c r="C97">
-        <v>-0.05492645022047266</v>
+        <v>0.002799314372259934</v>
       </c>
       <c r="D97">
-        <v>-0.1109627545353649</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08700655239623251</v>
+      </c>
+      <c r="E97">
+        <v>0.3396176818403648</v>
+      </c>
+      <c r="F97">
+        <v>-0.8595460997564557</v>
+      </c>
+      <c r="G97">
+        <v>0.06780295324040281</v>
+      </c>
+      <c r="H97">
+        <v>-0.01695839673391637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2419107387353054</v>
+        <v>0.274678604377827</v>
       </c>
       <c r="C98">
-        <v>-0.07352576893352566</v>
+        <v>0.03401371064400127</v>
       </c>
       <c r="D98">
-        <v>0.04946897890315066</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05851271288358659</v>
+      </c>
+      <c r="E98">
+        <v>0.1752677671529031</v>
+      </c>
+      <c r="F98">
+        <v>0.0975081457216192</v>
+      </c>
+      <c r="G98">
+        <v>-0.2278572743116553</v>
+      </c>
+      <c r="H98">
+        <v>0.2319226589215461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4556978297677447</v>
+        <v>0.2889308609294914</v>
       </c>
       <c r="C99">
-        <v>0.8738774622116041</v>
+        <v>-0.9321135786338474</v>
       </c>
       <c r="D99">
-        <v>-0.05522119899395282</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1383591427588297</v>
+      </c>
+      <c r="E99">
+        <v>-0.06836178396019529</v>
+      </c>
+      <c r="F99">
+        <v>0.04567363063675467</v>
+      </c>
+      <c r="G99">
+        <v>-0.02138914648907381</v>
+      </c>
+      <c r="H99">
+        <v>-0.06312509618320544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03961436393870988</v>
+        <v>0.04837625600706569</v>
       </c>
       <c r="C101">
-        <v>-0.03061602846281873</v>
+        <v>0.02616675754866271</v>
       </c>
       <c r="D101">
-        <v>0.005750314428313479</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007158151239809772</v>
+      </c>
+      <c r="E101">
+        <v>-0.05336909137641532</v>
+      </c>
+      <c r="F101">
+        <v>0.001690192443399875</v>
+      </c>
+      <c r="G101">
+        <v>-0.01133353946353213</v>
+      </c>
+      <c r="H101">
+        <v>-0.0780591834307625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
